--- a/spliced/falling/2023-03-25_18-01-21/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-21/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.8466672897338867</v>
+        <v>-0.7477993965148926</v>
       </c>
       <c r="D2" t="n">
-        <v>1.015576839447022</v>
+        <v>0.8460922241210938</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3397563397884369</v>
+        <v>0.0258597135543823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05015640013984282</v>
+        <v>0.01418807215633853</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1209949524629682</v>
+        <v>0.06712245657330498</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.04998914045946923</v>
+        <v>-0.07486735071454727</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3906707763671875</v>
+        <v>-0.8064756393432617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6379885673522949</v>
+        <v>0.8524413108825684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3954523801803589</v>
+        <v>-0.0703473389148712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07590000810367709</v>
+        <v>-0.02585268907603775</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.03761184641293151</v>
+        <v>-0.07008951618557867</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0287979330335341</v>
+        <v>-0.06299911678901748</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.8676061630249023</v>
+        <v>-0.7388706207275391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.545799732208252</v>
+        <v>0.7278079986572266</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2887592911720276</v>
+        <v>0.0533058643341064</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1049888261726923</v>
+        <v>0.046578474342823</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01085013018122738</v>
+        <v>-0.1310305893421173</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.02878338896802463</v>
+        <v>-0.0218384321779012</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.6799111366271973</v>
+        <v>-0.7223987579345703</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3862724304199219</v>
+        <v>0.7231974601745605</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3476599752902984</v>
+        <v>0.1768441945314407</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1882119462603614</v>
+        <v>0.0740674127425465</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2839359787425824</v>
+        <v>-0.09423323614256736</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3179844381908575</v>
+        <v>-0.02838341776458984</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1029138565063476</v>
+        <v>-0.8466672897338867</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1001324653625488</v>
+        <v>1.015576839447022</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.190993785858154</v>
+        <v>0.3397563397884369</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.160526663064955</v>
+        <v>0.05015640013984282</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3789109843117849</v>
+        <v>-0.1209949524629682</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2785327349390309</v>
+        <v>-0.04998914045946923</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.4145522117614746</v>
+        <v>-0.3906707763671875</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0007905960083007</v>
+        <v>0.6379885673522949</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.845284700393677</v>
+        <v>0.3954523801803589</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5090543727080018</v>
+        <v>0.07590000810367709</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3627521395683289</v>
+        <v>-0.03761184641293151</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3927354415257764</v>
+        <v>0.0287979330335341</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.701473712921143</v>
+        <v>-0.8676061630249023</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7780666351318359</v>
+        <v>0.545799732208252</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.666865825653076</v>
+        <v>0.2887592911720276</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7832455890519271</v>
+        <v>0.1049888261726923</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4365941172554375</v>
+        <v>-0.01085013018122738</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5598579928988499</v>
+        <v>-0.02878338896802463</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.315230846405029</v>
+        <v>-0.6799111366271973</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.501971244812012</v>
+        <v>0.3862724304199219</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.233747959136963</v>
+        <v>-0.3476599752902984</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.023984696183884</v>
+        <v>0.1882119462603614</v>
       </c>
       <c r="G9" t="n">
-        <v>1.582228234836008</v>
+        <v>-0.2839359787425824</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6729553427014874</v>
+        <v>0.3179844381908575</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.985809087753296</v>
+        <v>-0.1029138565063476</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.085277080535889</v>
+        <v>-0.1001324653625488</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.856818199157715</v>
+        <v>-1.190993785858154</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9998409918376387</v>
+        <v>-0.160526663064955</v>
       </c>
       <c r="G10" t="n">
-        <v>1.692903931651809</v>
+        <v>-0.3789109843117849</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.806933039710625</v>
+        <v>0.2785327349390309</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.954225778579712</v>
+        <v>-0.4145522117614746</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.951249122619629</v>
+        <v>-0.0007905960083007</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.099813938140869</v>
+        <v>-1.845284700393677</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4746423083401879</v>
+        <v>-0.5090543727080018</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7538440497148589</v>
+        <v>-0.3627521395683289</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.680687563759945</v>
+        <v>0.3927354415257764</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.63595199584961</v>
+        <v>-1.701473712921143</v>
       </c>
       <c r="D12" t="n">
-        <v>2.219827651977539</v>
+        <v>-0.7780666351318359</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8921973705291748</v>
+        <v>-1.666865825653076</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8093528002500497</v>
+        <v>-0.7832455890519271</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5344852464539692</v>
+        <v>-0.4365941172554375</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.117512524127961</v>
+        <v>0.5598579928988499</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.556339263916016</v>
+        <v>-2.315230846405029</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.303864598274231</v>
+        <v>-2.501971244812012</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8833200931549072</v>
+        <v>-2.233747959136963</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.273726730119617</v>
+        <v>-1.023984696183884</v>
       </c>
       <c r="G13" t="n">
-        <v>1.120043240842359</v>
+        <v>1.582228234836008</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5577272261892057</v>
+        <v>-0.6729553427014874</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-5.200931549072266</v>
+        <v>-2.985809087753296</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.096135139465332</v>
+        <v>-4.085277080535889</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.002499103546143</v>
+        <v>-1.856818199157715</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2288199303050852</v>
+        <v>-0.9998409918376387</v>
       </c>
       <c r="G14" t="n">
-        <v>2.496860782305416</v>
+        <v>1.692903931651809</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.04708753029505666</v>
+        <v>-2.806933039710625</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.456565856933594</v>
+        <v>-3.954225778579712</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5583957433700562</v>
+        <v>-3.951249122619629</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.8129391670227051</v>
+        <v>-3.099813938140869</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.03837542661598757</v>
+        <v>-0.4746423083401879</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5126686734812618</v>
+        <v>0.7538440497148589</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1585849789636489</v>
+        <v>-2.680687563759945</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.0285444259643554</v>
+        <v>-3.63595199584961</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4004054665565491</v>
+        <v>2.219827651977539</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4799985885620117</v>
+        <v>0.8921973705291748</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01539525892821115</v>
+        <v>-0.8093528002500497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1094975982393542</v>
+        <v>0.5344852464539692</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1047779364245276</v>
+        <v>-1.117512524127961</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.57087516784668</v>
+        <v>1.556339263916016</v>
       </c>
       <c r="D17" t="n">
-        <v>2.266251564025879</v>
+        <v>-1.303864598274231</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.062000274658203</v>
+        <v>0.8833200931549072</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0075849099465855</v>
+        <v>-1.273726730119617</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2328487300269676</v>
+        <v>1.120043240842359</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.1936733765261531</v>
+        <v>-0.5577272261892057</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.406256675720215</v>
+        <v>-5.200931549072266</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1967076063156128</v>
+        <v>-2.096135139465332</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8613651394844055</v>
+        <v>-4.002499103546143</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02827433337058379</v>
+        <v>-0.2288199303050852</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03143774332212447</v>
+        <v>2.496860782305416</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07858345125402683</v>
+        <v>-0.04708753029505666</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.7192792892456055</v>
+        <v>-4.456565856933594</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2438719868659973</v>
+        <v>0.5583957433700562</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1796204447746276</v>
+        <v>-0.8129391670227051</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.04280420055701628</v>
+        <v>-0.03837542661598757</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1646936322961547</v>
+        <v>0.5126686734812618</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1225221149978192</v>
+        <v>0.1585849789636489</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1307535171508789</v>
+        <v>-0.0285444259643554</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7073250412940979</v>
+        <v>0.4004054665565491</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7947471737861633</v>
+        <v>-0.4799985885620117</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02004219822230816</v>
+        <v>-0.01539525892821115</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.07973973045036929</v>
+        <v>0.1094975982393542</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.04007712183963673</v>
+        <v>-0.1047779364245276</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0377359390258789</v>
+        <v>1.57087516784668</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7947672605514526</v>
+        <v>2.266251564025879</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3724856078624725</v>
+        <v>-1.062000274658203</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0372627787292003</v>
+        <v>0.0075849099465855</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.019089538604021</v>
+        <v>-0.2328487300269676</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0505490973591804</v>
+        <v>-0.1936733765261531</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-21/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-21/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.7477993965148926</v>
+        <v>-0.7822842597961426</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8460922241210938</v>
+        <v>0.7009620666503906</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0258597135543823</v>
+        <v>0.2034818530082702</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01418807215633853</v>
+        <v>-0.02587450614997311</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06712245657330498</v>
+        <v>0.008312130346894184</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.07486735071454727</v>
+        <v>-0.03830997752291809</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.8064756393432617</v>
+        <v>-0.6724414825439453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8524413108825684</v>
+        <v>0.7283806800842285</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0703473389148712</v>
+        <v>0.0338471233844757</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02585268907603775</v>
+        <v>-0.03166318188110984</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07008951618557867</v>
+        <v>0.005548692618807229</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.06299911678901748</v>
+        <v>0.004886921495199072</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7388706207275391</v>
+        <v>-0.955592155456543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7278079986572266</v>
+        <v>0.6646170616149902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0533058643341064</v>
+        <v>0.1322764456272125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.046578474342823</v>
+        <v>-0.01120646846746765</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1310305893421173</v>
+        <v>-0.01967131506119446</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0218384321779012</v>
+        <v>0.04684027514996975</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.7223987579345703</v>
+        <v>-0.5998220443725586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7231974601745605</v>
+        <v>0.6136178970336914</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1768441945314407</v>
+        <v>-0.3951224088668823</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0740674127425465</v>
+        <v>-0.005999569415247833</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09423323614256736</v>
+        <v>-0.01865320652723307</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02838341776458984</v>
+        <v>0.03610649971025327</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.8466672897338867</v>
+        <v>-0.6383709907531738</v>
       </c>
       <c r="D6" t="n">
-        <v>1.015576839447022</v>
+        <v>0.829352855682373</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3397563397884369</v>
+        <v>0.2481068670749664</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05015640013984282</v>
+        <v>-0.01938042674391034</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1209949524629682</v>
+        <v>0.02639810448246341</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.04998914045946923</v>
+        <v>-0.02997603196473341</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.3906707763671875</v>
+        <v>-0.8866777420043945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6379885673522949</v>
+        <v>0.6802849769592285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3954523801803589</v>
+        <v>0.1837458908557891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07590000810367709</v>
+        <v>0.04876013357369639</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03761184641293151</v>
+        <v>0.03156137033476548</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0287979330335341</v>
+        <v>-0.02466732121649261</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.8676061630249023</v>
+        <v>-0.7689142227172852</v>
       </c>
       <c r="D8" t="n">
-        <v>0.545799732208252</v>
+        <v>0.6263480186462402</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2887592911720276</v>
+        <v>-0.1205646991729736</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1049888261726923</v>
+        <v>0.07661995095466947</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01085013018122738</v>
+        <v>0.006654067996091003</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.02878338896802463</v>
+        <v>0.02539454134447233</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.6799111366271973</v>
+        <v>-0.7416219711303711</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3862724304199219</v>
+        <v>0.6671648025512695</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3476599752902984</v>
+        <v>-0.0121779441833496</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1882119462603614</v>
+        <v>-0.008406669134274104</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2839359787425824</v>
+        <v>0.01747510954737656</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3179844381908575</v>
+        <v>0.02251474718962388</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1029138565063476</v>
+        <v>-0.9570107460021972</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1001324653625488</v>
+        <v>0.7521457672119141</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.190993785858154</v>
+        <v>0.0322656333446502</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.160526663064955</v>
+        <v>-0.01705332100391391</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3789109843117849</v>
+        <v>0.02540181328852965</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2785327349390309</v>
+        <v>0.02260201397196701</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.4145522117614746</v>
+        <v>-0.8430213928222656</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0007905960083007</v>
+        <v>0.7305541038513184</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.845284700393677</v>
+        <v>0.0520271658897399</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5090543727080018</v>
+        <v>0.004734205614243124</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3627521395683289</v>
+        <v>0.03287764106478005</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3927354415257764</v>
+        <v>-0.002007128720703896</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.701473712921143</v>
+        <v>-0.7825779914855957</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7780666351318359</v>
+        <v>0.6732511520385742</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.666865825653076</v>
+        <v>-0.1082392036914825</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7832455890519271</v>
+        <v>0.002516182849094959</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4365941172554375</v>
+        <v>0.03615013385812434</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5598579928988499</v>
+        <v>-0.01502437632353524</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.315230846405029</v>
+        <v>-0.6774282455444336</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.501971244812012</v>
+        <v>0.5100307464599609</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.233747959136963</v>
+        <v>-0.1018824279308319</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.023984696183884</v>
+        <v>-0.01514073128678966</v>
       </c>
       <c r="G13" t="n">
-        <v>1.582228234836008</v>
+        <v>0.0402807449655873</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.6729553427014874</v>
+        <v>-0.0335248665263255</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.985809087753296</v>
+        <v>-0.801264762878418</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.085277080535889</v>
+        <v>0.6673240661621094</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.856818199157715</v>
+        <v>0.1666318476200103</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9998409918376387</v>
+        <v>0.004646939025925644</v>
       </c>
       <c r="G14" t="n">
-        <v>1.692903931651809</v>
+        <v>0.05990842623370023</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.806933039710625</v>
+        <v>-0.04932736818279529</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-3.954225778579712</v>
+        <v>-0.7477993965148926</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.951249122619629</v>
+        <v>0.8460922241210938</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.099813938140869</v>
+        <v>0.0258597135543823</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4746423083401879</v>
+        <v>0.01418807215633853</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7538440497148589</v>
+        <v>0.06712245657330498</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.680687563759945</v>
+        <v>-0.07486735071454727</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-3.63595199584961</v>
+        <v>-0.8064756393432617</v>
       </c>
       <c r="D16" t="n">
-        <v>2.219827651977539</v>
+        <v>0.8524413108825684</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8921973705291748</v>
+        <v>-0.0703473389148712</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8093528002500497</v>
+        <v>-0.02585268907603775</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5344852464539692</v>
+        <v>-0.07008951618557867</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.117512524127961</v>
+        <v>-0.06299911678901748</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.556339263916016</v>
+        <v>-0.7388706207275391</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.303864598274231</v>
+        <v>0.7278079986572266</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8833200931549072</v>
+        <v>0.0533058643341064</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.273726730119617</v>
+        <v>0.046578474342823</v>
       </c>
       <c r="G17" t="n">
-        <v>1.120043240842359</v>
+        <v>-0.1310305893421173</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.5577272261892057</v>
+        <v>-0.0218384321779012</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-5.200931549072266</v>
+        <v>-0.7223987579345703</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.096135139465332</v>
+        <v>0.7231974601745605</v>
       </c>
       <c r="E18" t="n">
-        <v>-4.002499103546143</v>
+        <v>0.1768441945314407</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2288199303050852</v>
+        <v>0.0740674127425465</v>
       </c>
       <c r="G18" t="n">
-        <v>2.496860782305416</v>
+        <v>-0.09423323614256736</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.04708753029505666</v>
+        <v>-0.02838341776458984</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-4.456565856933594</v>
+        <v>-0.8466672897338867</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5583957433700562</v>
+        <v>1.015576839447022</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.8129391670227051</v>
+        <v>0.3397563397884369</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.03837542661598757</v>
+        <v>0.05015640013984282</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5126686734812618</v>
+        <v>-0.1209949524629682</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1585849789636489</v>
+        <v>-0.04998914045946923</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.0285444259643554</v>
+        <v>-0.3906707763671875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4004054665565491</v>
+        <v>0.6379885673522949</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4799985885620117</v>
+        <v>0.3954523801803589</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01539525892821115</v>
+        <v>0.07590000810367709</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1094975982393542</v>
+        <v>-0.03761184641293151</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1047779364245276</v>
+        <v>0.0287979330335341</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.57087516784668</v>
+        <v>-0.8676061630249023</v>
       </c>
       <c r="D21" t="n">
-        <v>2.266251564025879</v>
+        <v>0.545799732208252</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.062000274658203</v>
+        <v>0.2887592911720276</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0075849099465855</v>
+        <v>0.1049888261726923</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2328487300269676</v>
+        <v>-0.01085013018122738</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.1936733765261531</v>
+        <v>-0.02878338896802463</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.6799111366271973</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3862724304199219</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.3476599752902984</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1882119462603614</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2839359787425824</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3179844381908575</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1029138565063476</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.1001324653625488</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.190993785858154</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.160526663064955</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.3789109843117849</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2785327349390309</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4145522117614746</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.0007905960083007</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.845284700393677</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.5090543727080018</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.3627521395683289</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3927354415257764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.701473712921143</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.7780666351318359</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.666865825653076</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.7832455890519271</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.4365941172554375</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5598579928988499</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.315230846405029</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.501971244812012</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.233747959136963</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.023984696183884</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.582228234836008</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.6729553427014874</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-2.985809087753296</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4.085277080535889</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.856818199157715</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.9998409918376387</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.692903931651809</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.806933039710625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.954225778579712</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-3.951249122619629</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.099813938140869</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.4746423083401879</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.7538440497148589</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-2.680687563759945</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.63595199584961</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.219827651977539</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8921973705291748</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.8093528002500497</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5344852464539692</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.117512524127961</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.556339263916016</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.303864598274231</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8833200931549072</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.273726730119617</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.120043240842359</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.5577272261892057</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.200931549072266</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-2.096135139465332</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-4.002499103546143</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.2288199303050852</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.496860782305416</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.04708753029505666</v>
       </c>
     </row>
   </sheetData>
